--- a/examples/cloze_manyfiles_5_tabela/data.xlsx
+++ b/examples/cloze_manyfiles_5_tabela/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>sig</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejeitarh0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -509,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -518,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>15</v>
@@ -527,13 +532,18 @@
         <v>1.333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.333</v>
+        <v>1.333</v>
       </c>
       <c r="L2" t="n">
-        <v>4.003</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.035</v>
+        <v>0.426</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>não existe diferença significativa entre os valores esperados</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -576,6 +586,11 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>existe pelo menos um valor esperado significativamente diferente</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -617,6 +632,11 @@
       <c r="M4" t="n">
         <v>0.008</v>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>existe pelo menos um valor esperado significativamente diferente</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -632,7 +652,7 @@
         <v>180</v>
       </c>
       <c r="E5" t="n">
-        <v>170</v>
+        <v>4250</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -641,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>350</v>
+        <v>4430</v>
       </c>
       <c r="I5" t="n">
         <v>24</v>
@@ -650,13 +670,18 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>8.5</v>
+        <v>212.5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.294</v>
+        <v>0.212</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004</v>
+        <v>0.929</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>não existe diferença significativa entre os valores esperados</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -698,6 +723,11 @@
       </c>
       <c r="M6" t="n">
         <v>0.007</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>existe pelo menos um valor esperado significativamente diferente</t>
+        </is>
       </c>
     </row>
   </sheetData>
